--- a/draw_graph/all_log/time_all.xlsx
+++ b/draw_graph/all_log/time_all.xlsx
@@ -1,65 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95436B88-19D1-405E-ACAF-1EF0D679E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105056C7-3291-47DD-BFD1-4CCDBEB61EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Datasets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bisson</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>H-INDEX</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>Polak</t>
+  </si>
+  <si>
+    <t>TriCore</t>
+  </si>
+  <si>
+    <t>TRUST</t>
+  </si>
+  <si>
+    <t>GroupTC-BS</t>
+  </si>
+  <si>
+    <t>GroupTC-HS</t>
+  </si>
+  <si>
+    <t>vertex_count</t>
+  </si>
+  <si>
+    <t>edge_count</t>
+  </si>
+  <si>
+    <t>avg_degree</t>
   </si>
   <si>
     <t>As-Caida</t>
@@ -113,62 +115,10 @@
     <t>Com-Orkut</t>
   </si>
   <si>
-    <t>Fox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H-INDEX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Twitter7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Com-Friendster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriCore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC-BS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vertex_count</t>
-  </si>
-  <si>
-    <t>edge_count</t>
-  </si>
-  <si>
-    <t>avg_degree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bisson</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC-HS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,7 +129,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,12 +137,11 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,38 +178,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -283,44 +215,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -347,15 +279,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -382,7 +313,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,142 +324,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -538,93 +492,94 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>1.1900000000000001E-4</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="C2">
-        <v>1.103E-3</v>
+        <v>1.091</v>
       </c>
       <c r="D2">
-        <v>4.1599999999999997E-4</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="E2">
-        <v>7.7000000000000001E-5</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F2">
-        <v>3.8499999999999998E-4</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G2">
-        <v>6.0000000000000002E-5</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H2">
-        <v>2.9949999999999998E-3</v>
+        <v>3.0489999999999999</v>
       </c>
       <c r="I2">
-        <v>5.8E-5</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J2">
-        <v>2.1999999999999999E-5</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="K2">
-        <v>7.6000000000000004E-5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L2">
         <v>26475</v>
@@ -632,44 +587,43 @@
       <c r="M2">
         <v>53381</v>
       </c>
-      <c r="N2" cm="1">
-        <f t="array" ref="N2:N20">(M2:M20*2)/L2:L20</f>
-        <v>4.0325590179414545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="N2">
+        <v>4.0325590179414554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>1.37E-4</v>
+        <v>0.13</v>
       </c>
       <c r="C3">
-        <v>1.042E-3</v>
+        <v>1.032</v>
       </c>
       <c r="D3">
-        <v>8.6799999999999996E-4</v>
+        <v>0.86</v>
       </c>
       <c r="E3">
-        <v>1.2899999999999999E-4</v>
+        <v>0.127</v>
       </c>
       <c r="F3">
-        <v>1.0330000000000001E-3</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="G3">
-        <v>5.1E-5</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>2.7920000000000002E-3</v>
+        <v>2.8140000000000001</v>
       </c>
       <c r="I3">
-        <v>5.8E-5</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="J3">
-        <v>2.0999999999999999E-5</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K3">
-        <v>3.4999999999999997E-5</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="L3">
         <v>62586</v>
@@ -681,39 +635,39 @@
         <v>4.7260409676285429</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>8.3699999999999996E-4</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C4">
-        <v>1.0939999999999999E-3</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D4">
-        <v>2.5790000000000001E-3</v>
+        <v>2.5089999999999999</v>
       </c>
       <c r="E4">
-        <v>2.9599999999999998E-4</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F4">
-        <v>1.5590000000000001E-3</v>
+        <v>1.534</v>
       </c>
       <c r="G4">
-        <v>1.2400000000000001E-4</v>
+        <v>0.125</v>
       </c>
       <c r="H4">
-        <v>2.771E-3</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="I4">
-        <v>2.12E-4</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="J4">
-        <v>4.1999999999999998E-5</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="K4">
-        <v>1.5200000000000001E-4</v>
+        <v>0.15</v>
       </c>
       <c r="L4">
         <v>265214</v>
@@ -725,39 +679,39 @@
         <v>2.7485803916836971</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>8.6899999999999998E-4</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C5">
-        <v>1.1950000000000001E-3</v>
+        <v>1.177</v>
       </c>
       <c r="D5">
-        <v>1.9139999999999999E-3</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="E5">
-        <v>4.6000000000000001E-4</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="F5">
-        <v>1.0430000000000001E-3</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="G5">
-        <v>2.02E-4</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="H5">
-        <v>2.784E-3</v>
+        <v>2.75</v>
       </c>
       <c r="I5">
-        <v>3.7500000000000001E-4</v>
+        <v>0.375</v>
       </c>
       <c r="J5">
-        <v>1.1E-4</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="K5">
-        <v>2.6699999999999998E-4</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="L5">
         <v>82168</v>
@@ -766,42 +720,42 @@
         <v>504230</v>
       </c>
       <c r="N5">
-        <v>12.273147697400448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>12.27314769740045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1.307E-3</v>
+        <v>1.294</v>
       </c>
       <c r="C6">
-        <v>1.232E-3</v>
+        <v>1.212</v>
       </c>
       <c r="D6">
-        <v>5.476E-3</v>
+        <v>4.96</v>
       </c>
       <c r="E6">
-        <v>8.0999999999999996E-4</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="F6">
-        <v>9.0889999999999999E-3</v>
+        <v>9.0310000000000006</v>
       </c>
       <c r="G6">
-        <v>2.0900000000000001E-4</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="H6">
-        <v>3.2190000000000001E-3</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="I6">
-        <v>5.1400000000000003E-4</v>
+        <v>0.51</v>
       </c>
       <c r="J6">
-        <v>2.03E-4</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="K6">
-        <v>4.9899999999999999E-4</v>
+        <v>0.496</v>
       </c>
       <c r="L6">
         <v>325729</v>
@@ -813,39 +767,39 @@
         <v>6.6933432393185743</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>9.19E-4</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="C7">
-        <v>1.1820000000000001E-3</v>
+        <v>1.1659999999999999</v>
       </c>
       <c r="D7">
-        <v>5.7520000000000002E-3</v>
+        <v>5.6219999999999999</v>
       </c>
       <c r="E7">
-        <v>7.6300000000000001E-4</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="F7">
-        <v>1.653E-3</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="G7">
-        <v>1.8900000000000001E-4</v>
+        <v>0.186</v>
       </c>
       <c r="H7">
-        <v>3.588E-3</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="I7">
-        <v>4.6900000000000002E-4</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="J7">
-        <v>1.1900000000000001E-4</v>
+        <v>0.151</v>
       </c>
       <c r="K7">
-        <v>3.2299999999999999E-4</v>
+        <v>0.32</v>
       </c>
       <c r="L7">
         <v>317080</v>
@@ -857,39 +811,39 @@
         <v>6.6220890626971114</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>1.3159999999999999E-3</v>
+        <v>1.302</v>
       </c>
       <c r="C8">
-        <v>1.534E-3</v>
+        <v>1.538</v>
       </c>
       <c r="D8">
-        <v>9.2589999999999999E-3</v>
+        <v>9.0240000000000009</v>
       </c>
       <c r="E8">
-        <v>1.611E-3</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="F8">
-        <v>3.1080000000000001E-3</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="G8">
-        <v>3.5799999999999997E-4</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="H8">
-        <v>3.5040000000000002E-3</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="I8">
-        <v>6.8999999999999997E-4</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="J8">
-        <v>2.3699999999999999E-4</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="K8">
-        <v>6.0099999999999997E-4</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="L8">
         <v>403394</v>
@@ -898,42 +852,42 @@
         <v>2443408</v>
       </c>
       <c r="N8">
-        <v>12.114250583796487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>12.11425058379649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>2.0079999999999998E-3</v>
+        <v>1.992</v>
       </c>
       <c r="C9">
-        <v>5.1400000000000003E-4</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D9">
-        <v>2.0905E-2</v>
+        <v>20.465</v>
       </c>
       <c r="E9">
-        <v>1.6069999999999999E-3</v>
+        <v>1.589</v>
       </c>
       <c r="F9">
-        <v>7.8779999999999996E-3</v>
+        <v>7.7930000000000001</v>
       </c>
       <c r="G9">
-        <v>1.6000000000000001E-4</v>
+        <v>0.159</v>
       </c>
       <c r="H9">
-        <v>1.9886000000000001E-2</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="I9">
-        <v>7.4700000000000005E-4</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="J9">
-        <v>1.84E-4</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="K9">
-        <v>3.86E-4</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="L9">
         <v>1965206</v>
@@ -942,42 +896,42 @@
         <v>2766607</v>
       </c>
       <c r="N9">
-        <v>2.8155898160294646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>2.815589816029465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>2.2168E-2</v>
+        <v>22.07</v>
       </c>
       <c r="C10">
-        <v>2.8059999999999999E-3</v>
+        <v>2.7879999999999998</v>
       </c>
       <c r="D10">
-        <v>2.8761999999999999E-2</v>
+        <v>28.364000000000001</v>
       </c>
       <c r="E10">
-        <v>5.5859999999999998E-3</v>
+        <v>5.5540000000000003</v>
       </c>
       <c r="F10">
-        <v>6.2030000000000002E-3</v>
+        <v>6.1459999999999999</v>
       </c>
       <c r="G10">
-        <v>2.9810000000000001E-3</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="H10">
-        <v>4.9230000000000003E-3</v>
+        <v>4.6950000000000003</v>
       </c>
       <c r="I10">
-        <v>2.6189999999999998E-3</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="J10">
-        <v>7.8100000000000001E-4</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="K10">
-        <v>1.7719999999999999E-3</v>
+        <v>1.762</v>
       </c>
       <c r="L10">
         <v>2394385</v>
@@ -986,42 +940,42 @@
         <v>4659565</v>
       </c>
       <c r="N10">
-        <v>3.8920766710449657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>3.8920766710449661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>4.4250000000000001E-3</v>
+        <v>4.3760000000000003</v>
       </c>
       <c r="C11">
-        <v>2.7260000000000001E-3</v>
+        <v>2.72</v>
       </c>
       <c r="D11">
-        <v>1.864E-2</v>
+        <v>18.431000000000001</v>
       </c>
       <c r="E11">
-        <v>4.8789999999999997E-3</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="F11">
-        <v>9.9159999999999995E-3</v>
+        <v>9.8680000000000003</v>
       </c>
       <c r="G11">
-        <v>9.7799999999999992E-4</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="H11">
-        <v>8.9739999999999993E-3</v>
+        <v>4.9420000000000002</v>
       </c>
       <c r="I11">
-        <v>1.5479999999999999E-3</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="J11">
-        <v>1.052E-3</v>
+        <v>1.55</v>
       </c>
       <c r="K11">
-        <v>1.8220000000000001E-3</v>
+        <v>1.8160000000000001</v>
       </c>
       <c r="L11">
         <v>685230</v>
@@ -1030,42 +984,42 @@
         <v>6649470</v>
       </c>
       <c r="N11">
-        <v>19.407994396042206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>19.407994396042209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>1.558E-2</v>
+        <v>15.595000000000001</v>
       </c>
       <c r="C12">
-        <v>4.9160000000000002E-3</v>
+        <v>4.9119999999999999</v>
       </c>
       <c r="D12">
-        <v>4.2105999999999998E-2</v>
+        <v>38.966000000000001</v>
       </c>
       <c r="E12">
-        <v>8.4069999999999995E-3</v>
+        <v>8.3889999999999993</v>
       </c>
       <c r="F12">
-        <v>2.3893000000000001E-2</v>
+        <v>23.928000000000001</v>
       </c>
       <c r="G12">
-        <v>4.3620000000000004E-3</v>
+        <v>4.3220000000000001</v>
       </c>
       <c r="H12">
-        <v>7.4960000000000001E-3</v>
+        <v>7.468</v>
       </c>
       <c r="I12">
-        <v>3.3270000000000001E-3</v>
+        <v>3.3260000000000001</v>
       </c>
       <c r="J12">
-        <v>1.838E-3</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="K12">
-        <v>2.777E-3</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="L12">
         <v>1696415</v>
@@ -1074,42 +1028,42 @@
         <v>11095298</v>
       </c>
       <c r="N12">
-        <v>13.080877025963575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13.080877025963581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>1.4199E-2</v>
+        <v>14.177</v>
       </c>
       <c r="C13">
-        <v>1.107E-2</v>
+        <v>10.981999999999999</v>
       </c>
       <c r="D13">
-        <v>7.7715000000000006E-2</v>
+        <v>75.236999999999995</v>
       </c>
       <c r="E13">
-        <v>1.3202999999999999E-2</v>
+        <v>13.179</v>
       </c>
       <c r="F13">
-        <v>2.4347000000000001E-2</v>
+        <v>24.361999999999998</v>
       </c>
       <c r="G13">
-        <v>6.4720000000000003E-3</v>
+        <v>6.42</v>
       </c>
       <c r="H13">
-        <v>1.2156999999999999E-2</v>
+        <v>12.021000000000001</v>
       </c>
       <c r="I13">
-        <v>5.6990000000000001E-3</v>
+        <v>5.702</v>
       </c>
       <c r="J13">
-        <v>3.699E-3</v>
+        <v>4.29</v>
       </c>
       <c r="K13">
-        <v>4.8589999999999996E-3</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="L13">
         <v>3774768</v>
@@ -1121,39 +1075,39 @@
         <v>8.7522978895656642</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>2.5429E-2</v>
+        <v>25.446000000000002</v>
       </c>
       <c r="C14">
-        <v>1.848E-2</v>
+        <v>18.315000000000001</v>
       </c>
       <c r="D14">
-        <v>6.3757999999999995E-2</v>
+        <v>60.67</v>
       </c>
       <c r="E14">
-        <v>2.1364000000000001E-2</v>
+        <v>21.367999999999999</v>
       </c>
       <c r="F14">
-        <v>2.9413999999999999E-2</v>
+        <v>29.327000000000002</v>
       </c>
       <c r="G14">
-        <v>1.7006E-2</v>
+        <v>16.954999999999998</v>
       </c>
       <c r="H14">
-        <v>1.9254E-2</v>
+        <v>15.895</v>
       </c>
       <c r="I14">
-        <v>9.0150000000000004E-3</v>
+        <v>9.0050000000000008</v>
       </c>
       <c r="J14">
-        <v>8.1729999999999997E-3</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="K14">
-        <v>7.7640000000000001E-3</v>
+        <v>7.7510000000000003</v>
       </c>
       <c r="L14">
         <v>1632803</v>
@@ -1165,39 +1119,39 @@
         <v>27.31739713854029</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>0.143456</v>
+        <v>143.88499999999999</v>
       </c>
       <c r="C15">
-        <v>4.6559000000000003E-2</v>
+        <v>46.432000000000002</v>
       </c>
       <c r="D15">
-        <v>0.10111000000000001</v>
+        <v>100.94499999999999</v>
       </c>
       <c r="E15">
-        <v>9.5938999999999997E-2</v>
+        <v>96.027000000000001</v>
       </c>
       <c r="F15">
-        <v>5.7404999999999998E-2</v>
+        <v>57.375999999999998</v>
       </c>
       <c r="G15">
-        <v>6.2692999999999999E-2</v>
+        <v>62.646000000000001</v>
       </c>
       <c r="H15">
-        <v>4.7935999999999999E-2</v>
+        <v>30.46</v>
       </c>
       <c r="I15">
-        <v>2.8771000000000001E-2</v>
+        <v>28.783999999999999</v>
       </c>
       <c r="J15">
-        <v>2.2116E-2</v>
+        <v>20.413</v>
       </c>
       <c r="K15">
-        <v>2.3299E-2</v>
+        <v>23.303000000000001</v>
       </c>
       <c r="L15">
         <v>2601977</v>
@@ -1206,42 +1160,42 @@
         <v>28183518</v>
       </c>
       <c r="N15">
-        <v>21.663156899542155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>21.663156899542159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>6.6937999999999998E-2</v>
+        <v>67.058000000000007</v>
       </c>
       <c r="C16">
-        <v>2.8816999999999999E-2</v>
+        <v>28.614999999999998</v>
       </c>
       <c r="D16">
-        <v>0.105361</v>
+        <v>104.163</v>
       </c>
       <c r="E16">
-        <v>4.0870999999999998E-2</v>
+        <v>40.843000000000004</v>
       </c>
       <c r="F16">
-        <v>4.5164999999999997E-2</v>
+        <v>45.201000000000001</v>
       </c>
       <c r="G16">
-        <v>2.4053000000000001E-2</v>
+        <v>23.994</v>
       </c>
       <c r="H16">
-        <v>2.6651999999999999E-2</v>
+        <v>23.053000000000001</v>
       </c>
       <c r="I16">
-        <v>1.3049E-2</v>
+        <v>13.068</v>
       </c>
       <c r="J16">
-        <v>1.4112E-2</v>
+        <v>13.526</v>
       </c>
       <c r="K16">
-        <v>1.0694E-2</v>
+        <v>10.685</v>
       </c>
       <c r="L16">
         <v>3997962</v>
@@ -1250,42 +1204,42 @@
         <v>34681189</v>
       </c>
       <c r="N16">
-        <v>17.349434036641668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>17.349434036641671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>0.105237</v>
+        <v>105.26</v>
       </c>
       <c r="C17">
-        <v>4.1052999999999999E-2</v>
+        <v>40.795999999999999</v>
       </c>
       <c r="D17">
-        <v>0.14414399999999999</v>
+        <v>128.852</v>
       </c>
       <c r="E17">
-        <v>5.9336E-2</v>
+        <v>59.319000000000003</v>
       </c>
       <c r="F17">
-        <v>6.2880000000000005E-2</v>
+        <v>62.828000000000003</v>
       </c>
       <c r="G17">
-        <v>3.5810000000000002E-2</v>
+        <v>35.600999999999999</v>
       </c>
       <c r="H17">
-        <v>3.3555000000000001E-2</v>
+        <v>30.100999999999999</v>
       </c>
       <c r="I17">
-        <v>1.8138999999999999E-2</v>
+        <v>18.132000000000001</v>
       </c>
       <c r="J17">
-        <v>1.9855000000000001E-2</v>
+        <v>18.501999999999999</v>
       </c>
       <c r="K17">
-        <v>1.5115999999999999E-2</v>
+        <v>15.103999999999999</v>
       </c>
       <c r="L17">
         <v>4847571</v>
@@ -1297,39 +1251,39 @@
         <v>17.679467510635739</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>0.56352400000000002</v>
+        <v>565.98099999999999</v>
       </c>
       <c r="C18">
-        <v>0.22565399999999999</v>
+        <v>224.76</v>
       </c>
       <c r="D18">
-        <v>0.33063599999999999</v>
+        <v>300.858</v>
       </c>
       <c r="E18">
-        <v>0.377222</v>
+        <v>377.279</v>
       </c>
       <c r="F18">
-        <v>0.234517</v>
+        <v>234.64699999999999</v>
       </c>
       <c r="G18">
-        <v>0.23297000000000001</v>
+        <v>233.233</v>
       </c>
       <c r="H18">
-        <v>0.12781400000000001</v>
+        <v>126.66200000000001</v>
       </c>
       <c r="I18">
-        <v>9.3631000000000006E-2</v>
+        <v>93.653999999999996</v>
       </c>
       <c r="J18">
-        <v>9.8928000000000002E-2</v>
+        <v>98.879000000000005</v>
       </c>
       <c r="K18">
-        <v>8.1819000000000003E-2</v>
+        <v>81.861999999999995</v>
       </c>
       <c r="L18">
         <v>3072441</v>
@@ -1341,36 +1295,36 @@
         <v>76.281421189210789</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>10.171080999999999</v>
+        <v>10171.83</v>
       </c>
       <c r="D19">
-        <v>13.715164</v>
+        <v>13715.59</v>
       </c>
       <c r="E19">
-        <v>61.885730000000002</v>
+        <v>61955.987999999998</v>
       </c>
       <c r="F19">
-        <v>7.0953720000000002</v>
+        <v>7099.857</v>
       </c>
       <c r="G19">
-        <v>10.130960999999999</v>
+        <v>10127.503000000001</v>
       </c>
       <c r="H19">
-        <v>4.5911330000000001</v>
+        <v>4575.4340000000002</v>
       </c>
       <c r="I19">
-        <v>3.2865950000000002</v>
+        <v>3286.4270000000001</v>
       </c>
       <c r="J19">
-        <v>3.050996</v>
+        <v>3055.18</v>
       </c>
       <c r="K19">
-        <v>3.050106</v>
+        <v>3049.4229999999998</v>
       </c>
       <c r="L19">
         <v>41652230</v>
@@ -1382,36 +1336,36 @@
         <v>57.7406321822385</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>5.7569129999999999</v>
+        <v>5757.1629999999996</v>
       </c>
       <c r="D20">
-        <v>5.5439090000000002</v>
+        <v>5543.3450000000003</v>
       </c>
       <c r="E20">
-        <v>9.1562000000000001</v>
+        <v>9153.98</v>
       </c>
       <c r="F20">
-        <v>5.5302959999999999</v>
+        <v>5532.4040000000005</v>
       </c>
       <c r="G20">
-        <v>5.4328709999999996</v>
+        <v>5432.7160000000003</v>
       </c>
       <c r="H20">
-        <v>2.5836540000000001</v>
+        <v>2589.3409999999999</v>
       </c>
       <c r="I20">
-        <v>2.2267700000000001</v>
+        <v>2226.8389999999999</v>
       </c>
       <c r="J20">
-        <v>2.1669870000000002</v>
+        <v>2261.7139999999999</v>
       </c>
       <c r="K20">
-        <v>2.009735</v>
+        <v>2010.5350000000001</v>
       </c>
       <c r="L20">
         <v>65608366</v>
@@ -1425,6 +1379,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/draw_graph/all_log/time_all.xlsx
+++ b/draw_graph/all_log/time_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105056C7-3291-47DD-BFD1-4CCDBEB61EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE836F3-931E-43E6-9FC8-63EA410693A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,7 +500,9 @@
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">

--- a/draw_graph/all_log/time_all.xlsx
+++ b/draw_graph/all_log/time_all.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE836F3-931E-43E6-9FC8-63EA410693A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D2032A-2E83-477C-B266-EBC7EB4A6A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Datasets</t>
   </si>
@@ -64,68 +75,95 @@
     <t>avg_degree</t>
   </si>
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>As-Skitter</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
+    <t>edge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +184,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,13 +223,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -489,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,9 +562,10 @@
     <col min="10" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,10 +608,16 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0.11899999999999999</v>
@@ -592,10 +658,18 @@
       <c r="N2">
         <v>4.0325590179414554</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2">
+        <f>L2/1000</f>
+        <v>26.475000000000001</v>
+      </c>
+      <c r="P2">
+        <f>M2/1000</f>
+        <v>53.381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.13</v>
@@ -636,10 +710,18 @@
       <c r="N3">
         <v>4.7260409676285429</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3">
+        <f t="shared" ref="O3:O20" si="0">L3/1000</f>
+        <v>62.585999999999999</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P20" si="1">M3/1000</f>
+        <v>147.892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0.83499999999999996</v>
@@ -680,10 +762,18 @@
       <c r="N4">
         <v>2.7485803916836971</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>265.214</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>364.48099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0.86099999999999999</v>
@@ -724,10 +814,18 @@
       <c r="N5">
         <v>12.27314769740045</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>82.168000000000006</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>504.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1.294</v>
@@ -768,10 +866,18 @@
       <c r="N6">
         <v>6.6933432393185743</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>325.72899999999998</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1090.1079999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0.90600000000000003</v>
@@ -812,10 +918,18 @@
       <c r="N7">
         <v>6.6220890626971114</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>317.08</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>1049.866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1.302</v>
@@ -856,10 +970,18 @@
       <c r="N8">
         <v>12.11425058379649</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>403.39400000000001</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2443.4079999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1.992</v>
@@ -900,10 +1022,18 @@
       <c r="N9">
         <v>2.815589816029465</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1965.2059999999999</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>2766.607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>22.07</v>
@@ -944,10 +1074,18 @@
       <c r="N10">
         <v>3.8920766710449661</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2394.3850000000002</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>4659.5649999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>4.3760000000000003</v>
@@ -988,10 +1126,18 @@
       <c r="N11">
         <v>19.407994396042209</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>685.23</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>6649.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>15.595000000000001</v>
@@ -1032,10 +1178,18 @@
       <c r="N12">
         <v>13.080877025963581</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1696.415</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>11095.298000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>14.177</v>
@@ -1076,10 +1230,18 @@
       <c r="N13">
         <v>8.7522978895656642</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>3774.768</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>16518.947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>25.446000000000002</v>
@@ -1120,10 +1282,18 @@
       <c r="N14">
         <v>27.31739713854029</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1632.8030000000001</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>22301.964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>143.88499999999999</v>
@@ -1164,10 +1334,18 @@
       <c r="N15">
         <v>21.663156899542159</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2601.9769999999999</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>28183.518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>67.058000000000007</v>
@@ -1208,10 +1386,18 @@
       <c r="N16">
         <v>17.349434036641671</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>3997.962</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>34681.188999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>105.26</v>
@@ -1252,10 +1438,18 @@
       <c r="N17">
         <v>17.679467510635739</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>4847.5709999999999</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>42851.237000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>565.98099999999999</v>
@@ -1296,10 +1490,18 @@
       <c r="N18">
         <v>76.281421189210789</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>3072.4409999999998</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>117185.083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>10171.83</v>
@@ -1337,10 +1539,18 @@
       <c r="N19">
         <v>57.7406321822385</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>41652.230000000003</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1202513.0460000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5757.1629999999996</v>
@@ -1377,6 +1587,14 @@
       </c>
       <c r="N20">
         <v>55.056001089861013</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>65608.365999999995</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>1806067.135</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/all_log/time_all.xlsx
+++ b/draw_graph/all_log/time_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\all_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D2032A-2E83-477C-B266-EBC7EB4A6A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D2716D-E3F9-49CE-B3D4-3A12D8CD5B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,11 +143,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -175,6 +175,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -551,7 +552,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,6 +560,7 @@
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.25" bestFit="1" customWidth="1"/>
@@ -929,7 +931,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1.302</v>
@@ -981,7 +983,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>1.992</v>
@@ -1033,7 +1035,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>22.07</v>
@@ -1085,7 +1087,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>4.3760000000000003</v>
@@ -1137,7 +1139,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>15.595000000000001</v>
@@ -1189,7 +1191,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>14.177</v>
@@ -1241,7 +1243,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>25.446000000000002</v>
@@ -1293,7 +1295,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>143.88499999999999</v>
@@ -1345,7 +1347,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>67.058000000000007</v>
@@ -1397,7 +1399,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>105.26</v>
@@ -1449,7 +1451,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>565.98099999999999</v>
@@ -1501,7 +1503,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>10171.83</v>
@@ -1550,7 +1552,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>5757.1629999999996</v>
